--- a/data-raw/mopac.xlsx
+++ b/data-raw/mopac.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\R\sift\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\R\mopac\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sunday" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Infiniti</t>
   </si>
   <si>
-    <t>Commerical</t>
-  </si>
-  <si>
     <t>SRX</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>Patriot</t>
+  </si>
+  <si>
+    <t>Commercial</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>22</v>
       </c>
       <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
         <v>58</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,10 +1877,10 @@
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1960,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1980,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,7 +2000,7 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,7 +2020,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2040,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2060,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,7 +2100,7 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2140,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
         <v>69</v>
-      </c>
-      <c r="F51" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2180,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,10 +2197,10 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
         <v>72</v>
-      </c>
-      <c r="F53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2220,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2240,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2257,10 +2257,10 @@
         <v>20</v>
       </c>
       <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
         <v>76</v>
-      </c>
-      <c r="F56" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,10 +2317,10 @@
         <v>22</v>
       </c>
       <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
         <v>69</v>
-      </c>
-      <c r="F59" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2417,10 +2417,10 @@
         <v>22</v>
       </c>
       <c r="E64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" t="s">
         <v>80</v>
-      </c>
-      <c r="F64" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
         <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2497,10 +2497,10 @@
         <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
@@ -2520,7 +2520,7 @@
         <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,7 +2540,7 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2640,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,7 +2720,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,7 +2820,7 @@
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2857,10 +2857,10 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,7 +2880,7 @@
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,7 +2900,7 @@
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,7 +2920,7 @@
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,7 +2940,7 @@
         <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,7 +2960,7 @@
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3017,10 +3017,10 @@
         <v>22</v>
       </c>
       <c r="E94" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" t="s">
         <v>96</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3037,10 +3037,10 @@
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D96" t="s">
         <v>25</v>
       </c>
       <c r="E96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3074,13 +3074,13 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,10 +3097,10 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3117,10 +3117,10 @@
         <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3154,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3171,10 +3171,10 @@
         <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3211,10 +3211,10 @@
         <v>22</v>
       </c>
       <c r="E104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" t="s">
         <v>107</v>
-      </c>
-      <c r="F104" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3234,7 +3234,7 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3271,10 +3271,10 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3291,10 +3291,10 @@
         <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3314,7 +3314,7 @@
         <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="F110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3354,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3394,7 +3394,7 @@
         <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3414,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3434,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3454,7 +3454,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3494,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3551,10 +3551,10 @@
         <v>22</v>
       </c>
       <c r="E121" t="s">
+        <v>112</v>
+      </c>
+      <c r="F121" t="s">
         <v>113</v>
-      </c>
-      <c r="F121" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
         <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3591,10 +3591,10 @@
         <v>20</v>
       </c>
       <c r="E123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3614,7 +3614,7 @@
         <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3634,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3654,7 +3654,7 @@
         <v>18</v>
       </c>
       <c r="F126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3748,7 +3748,7 @@
         <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3763,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -3800,13 +3800,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3860,7 +3860,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3891,10 +3891,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3931,10 +3931,10 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
         <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3971,10 +3971,10 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4008,13 +4008,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4111,10 +4111,10 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4154,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4194,7 +4194,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4231,10 +4231,10 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4294,7 +4294,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4311,10 +4311,10 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4354,7 +4354,7 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,10 +4391,10 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4414,7 +4414,7 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4454,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4528,10 +4528,10 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4571,7 +4571,7 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4591,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4628,10 +4628,10 @@
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4685,7 +4685,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4725,7 +4725,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4745,7 +4745,7 @@
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4785,7 +4785,7 @@
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4802,10 +4802,10 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -4825,7 +4825,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4845,7 +4845,7 @@
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4882,10 +4882,10 @@
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -4902,10 +4902,10 @@
         <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -4925,7 +4925,7 @@
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -4962,7 +4962,7 @@
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61">
         <v>268</v>
@@ -5005,7 +5005,7 @@
         <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5022,10 +5022,10 @@
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5045,7 +5045,7 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5065,7 +5065,7 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5082,10 +5082,10 @@
         <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5105,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5125,7 +5125,7 @@
         <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5162,10 +5162,10 @@
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -5182,10 +5182,10 @@
         <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -5225,7 +5225,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5242,10 +5242,10 @@
         <v>22</v>
       </c>
       <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" t="s">
         <v>69</v>
-      </c>
-      <c r="F75" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -5265,7 +5265,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5285,7 +5285,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5325,7 +5325,7 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5365,7 +5365,7 @@
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5385,7 +5385,7 @@
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5422,10 +5422,10 @@
         <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5442,10 +5442,10 @@
         <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5485,7 +5485,7 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5505,7 +5505,7 @@
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5525,7 +5525,7 @@
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
         <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5565,7 +5565,7 @@
         <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5579,13 +5579,13 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E92" t="s">
         <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5602,10 +5602,10 @@
         <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5625,7 +5625,7 @@
         <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5645,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5662,10 +5662,10 @@
         <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5685,7 +5685,7 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
         <v>18</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5725,7 +5725,7 @@
         <v>54</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5762,10 +5762,10 @@
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5825,7 +5825,7 @@
         <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
         <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5865,7 +5865,7 @@
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5885,7 +5885,7 @@
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5905,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -5925,7 +5925,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -5962,7 +5962,7 @@
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6002,7 +6002,7 @@
         <v>54</v>
       </c>
       <c r="F113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6022,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -6039,10 +6039,10 @@
         <v>20</v>
       </c>
       <c r="E115" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" t="s">
         <v>160</v>
-      </c>
-      <c r="F115" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -6062,7 +6062,7 @@
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -6130,7 +6130,7 @@
         <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6150,7 +6150,7 @@
         <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -6184,7 +6184,7 @@
         <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6204,7 +6204,7 @@
         <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -6244,7 +6244,7 @@
         <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -6264,7 +6264,7 @@
         <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -6304,7 +6304,7 @@
         <v>18</v>
       </c>
       <c r="F129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -6381,10 +6381,10 @@
         <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -6404,7 +6404,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -6424,7 +6424,7 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -6461,10 +6461,10 @@
         <v>22</v>
       </c>
       <c r="E137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -6484,7 +6484,7 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -6504,7 +6504,7 @@
         <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -6524,7 +6524,7 @@
         <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -6544,7 +6544,7 @@
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -6564,7 +6564,7 @@
         <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -6604,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -6644,7 +6644,7 @@
         <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -6678,7 +6678,7 @@
         <v>18</v>
       </c>
       <c r="F148" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -6698,7 +6698,7 @@
         <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -6718,7 +6718,7 @@
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -6738,7 +6738,7 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -6758,7 +6758,7 @@
         <v>18</v>
       </c>
       <c r="F152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -6778,7 +6778,7 @@
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -6798,7 +6798,7 @@
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -6852,10 +6852,10 @@
         <v>25</v>
       </c>
       <c r="E157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F157" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -6875,7 +6875,7 @@
         <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -6895,7 +6895,7 @@
         <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -6932,10 +6932,10 @@
         <v>22</v>
       </c>
       <c r="E161" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F161" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -6975,7 +6975,7 @@
         <v>13</v>
       </c>
       <c r="F163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -6995,7 +6995,7 @@
         <v>53</v>
       </c>
       <c r="F164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -7015,7 +7015,7 @@
         <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -7055,7 +7055,7 @@
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -7075,7 +7075,7 @@
         <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7088,7 +7088,7 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -7154,7 +7154,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7194,7 +7194,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7211,10 +7211,10 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,7 +7234,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7254,7 +7254,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7274,7 +7274,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7294,7 +7294,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7314,7 +7314,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7334,7 +7334,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7351,10 +7351,10 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7374,7 +7374,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7394,7 +7394,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7414,7 +7414,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7434,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7448,13 +7448,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7494,7 +7494,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7514,7 +7514,7 @@
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7534,7 +7534,7 @@
         <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7554,7 +7554,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7574,7 +7574,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7594,7 +7594,7 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7611,10 +7611,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7634,7 +7634,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7654,7 +7654,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7674,7 +7674,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7691,10 +7691,10 @@
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7714,7 +7714,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7754,7 +7754,7 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7774,7 +7774,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7794,7 +7794,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7814,7 +7814,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7854,7 +7854,7 @@
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7874,7 +7874,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7914,7 +7914,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7934,7 +7934,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7954,7 +7954,7 @@
         <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7974,7 +7974,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7994,7 +7994,7 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -8014,7 +8014,7 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8031,10 +8031,10 @@
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -8054,7 +8054,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -8074,7 +8074,7 @@
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -8094,7 +8094,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -8114,7 +8114,7 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8174,7 +8174,7 @@
         <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8214,7 +8214,7 @@
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -8254,7 +8254,7 @@
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -8294,7 +8294,7 @@
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
         <v>20</v>
@@ -8314,7 +8314,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8334,7 +8334,7 @@
         <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8354,7 +8354,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8371,10 +8371,10 @@
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
         <v>20</v>
@@ -8434,7 +8434,7 @@
         <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8534,7 +8534,7 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8574,7 +8574,7 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8594,7 +8594,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8614,7 +8614,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8631,10 +8631,10 @@
         <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8648,13 +8648,13 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8674,7 +8674,7 @@
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8694,7 +8694,7 @@
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8714,7 +8714,7 @@
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8751,10 +8751,10 @@
         <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8774,7 +8774,7 @@
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8834,7 +8834,7 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8854,7 +8854,7 @@
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8874,7 +8874,7 @@
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8894,7 +8894,7 @@
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8914,7 +8914,7 @@
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8934,7 +8934,7 @@
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8954,7 +8954,7 @@
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8974,7 +8974,7 @@
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -9014,7 +9014,7 @@
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -9054,7 +9054,7 @@
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9114,7 +9114,7 @@
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -9131,10 +9131,10 @@
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -9154,7 +9154,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -9174,7 +9174,7 @@
         <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -9234,7 +9234,7 @@
         <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -9254,7 +9254,7 @@
         <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -9271,10 +9271,10 @@
         <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -9314,7 +9314,7 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -9327,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -9373,7 +9373,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9393,7 +9393,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9413,7 +9413,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9433,7 +9433,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9450,10 +9450,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
         <v>249</v>
-      </c>
-      <c r="F6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -9493,7 +9493,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9510,10 +9510,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
         <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9550,10 +9550,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -9573,7 +9573,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9607,7 +9607,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -9644,10 +9644,10 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9664,10 +9664,10 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -9687,7 +9687,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9707,7 +9707,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9727,7 +9727,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9787,7 +9787,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -9804,10 +9804,10 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9824,10 +9824,10 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -9847,7 +9847,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -9864,10 +9864,10 @@
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9887,7 +9887,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9907,7 +9907,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9964,10 +9964,10 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" t="s">
         <v>252</v>
-      </c>
-      <c r="F32" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9987,7 +9987,7 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10004,10 +10004,10 @@
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -10027,7 +10027,7 @@
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -10087,7 +10087,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -10107,7 +10107,7 @@
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10124,10 +10124,10 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -10147,7 +10147,7 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -10227,7 +10227,7 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -10247,7 +10247,7 @@
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -10267,7 +10267,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10287,7 +10287,7 @@
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -10321,7 +10321,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -10361,7 +10361,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -10381,7 +10381,7 @@
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -10401,7 +10401,7 @@
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -10435,7 +10435,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -10475,7 +10475,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -10495,7 +10495,7 @@
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -10515,7 +10515,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -10555,7 +10555,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -10589,13 +10589,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -10615,7 +10615,7 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -10675,7 +10675,7 @@
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -10695,7 +10695,7 @@
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -10715,7 +10715,7 @@
         <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -10732,10 +10732,10 @@
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -10755,7 +10755,7 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10772,10 +10772,10 @@
         <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -10795,7 +10795,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -10806,16 +10806,16 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
         <v>52</v>
       </c>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10832,10 +10832,10 @@
         <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -10855,7 +10855,7 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -10872,10 +10872,10 @@
         <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -10895,7 +10895,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -10912,10 +10912,10 @@
         <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -10955,7 +10955,7 @@
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -10972,10 +10972,10 @@
         <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -10992,10 +10992,10 @@
         <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -11015,7 +11015,7 @@
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -11032,10 +11032,10 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -11055,7 +11055,7 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -11072,10 +11072,10 @@
         <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -11092,10 +11092,10 @@
         <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -11115,7 +11115,7 @@
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -11135,7 +11135,7 @@
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -11155,7 +11155,7 @@
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -11212,10 +11212,10 @@
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -11235,7 +11235,7 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -11269,7 +11269,7 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -11289,7 +11289,7 @@
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -11306,10 +11306,10 @@
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -11323,13 +11323,13 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -11369,7 +11369,7 @@
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -11389,7 +11389,7 @@
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -11409,7 +11409,7 @@
         <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -11429,7 +11429,7 @@
         <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -11489,7 +11489,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -11509,7 +11509,7 @@
         <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -11543,7 +11543,7 @@
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -11563,7 +11563,7 @@
         <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -11580,10 +11580,10 @@
         <v>25</v>
       </c>
       <c r="E114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -11623,7 +11623,7 @@
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -11643,7 +11643,7 @@
         <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -11663,7 +11663,7 @@
         <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -11680,10 +11680,10 @@
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -11703,7 +11703,7 @@
         <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -11720,10 +11720,10 @@
         <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F121" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -11743,7 +11743,7 @@
         <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -11763,7 +11763,7 @@
         <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -11783,7 +11783,7 @@
         <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -11800,10 +11800,10 @@
         <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F125" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -11823,7 +11823,7 @@
         <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -11863,7 +11863,7 @@
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -11883,7 +11883,7 @@
         <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -11903,7 +11903,7 @@
         <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -11923,7 +11923,7 @@
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -11935,8 +11935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -11982,7 +11982,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12022,7 +12022,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -12042,7 +12042,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -12062,7 +12062,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12082,7 +12082,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -12102,7 +12102,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12159,10 +12159,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -12182,7 +12182,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12222,7 +12222,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12242,7 +12242,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12262,7 +12262,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12322,7 +12322,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -12342,7 +12342,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12362,7 +12362,7 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12382,7 +12382,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12422,7 +12422,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12462,7 +12462,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -12482,7 +12482,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -12502,7 +12502,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -12519,10 +12519,10 @@
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -12542,7 +12542,7 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -12559,10 +12559,10 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -12602,7 +12602,7 @@
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -12642,7 +12642,7 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -12662,7 +12662,7 @@
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -12682,7 +12682,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -12702,7 +12702,7 @@
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -12716,13 +12716,13 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -12759,10 +12759,10 @@
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -12779,10 +12779,10 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -12802,7 +12802,7 @@
         <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -12822,7 +12822,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -12862,7 +12862,7 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -12879,10 +12879,10 @@
         <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -12922,7 +12922,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -13002,7 +13002,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13039,7 +13039,7 @@
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55">
         <v>500</v>
@@ -13062,7 +13062,7 @@
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -13102,7 +13102,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13142,7 +13142,7 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -13162,7 +13162,7 @@
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -13202,7 +13202,7 @@
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -13239,10 +13239,10 @@
         <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -13262,7 +13262,7 @@
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -13282,7 +13282,7 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -13302,7 +13302,7 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -13322,7 +13322,7 @@
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -13342,7 +13342,7 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -13362,7 +13362,7 @@
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -13382,7 +13382,7 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -13402,7 +13402,7 @@
         <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -13422,7 +13422,7 @@
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -13442,7 +13442,7 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -13462,7 +13462,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -13482,7 +13482,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -13502,7 +13502,7 @@
         <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -13519,10 +13519,10 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -13542,7 +13542,7 @@
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -13562,7 +13562,7 @@
         <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -13582,7 +13582,7 @@
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -13596,13 +13596,13 @@
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -13622,7 +13622,7 @@
         <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -13679,10 +13679,10 @@
         <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -13716,13 +13716,13 @@
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -13742,7 +13742,7 @@
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -13762,7 +13762,7 @@
         <v>54</v>
       </c>
       <c r="F91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -13802,7 +13802,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -13822,7 +13822,7 @@
         <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -13842,7 +13842,7 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -13862,7 +13862,7 @@
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -13902,7 +13902,7 @@
         <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -13942,7 +13942,7 @@
         <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -13959,10 +13959,10 @@
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -13979,10 +13979,10 @@
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -14022,7 +14022,7 @@
         <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -14042,7 +14042,7 @@
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -14059,10 +14059,10 @@
         <v>20</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -14082,7 +14082,7 @@
         <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -14102,7 +14102,7 @@
         <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -14139,10 +14139,10 @@
         <v>20</v>
       </c>
       <c r="E110" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" t="s">
         <v>76</v>
-      </c>
-      <c r="F110" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -14162,7 +14162,7 @@
         <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -14176,13 +14176,13 @@
         <v>17</v>
       </c>
       <c r="D112" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" t="s">
+        <v>95</v>
+      </c>
+      <c r="F112" t="s">
         <v>119</v>
-      </c>
-      <c r="E112" t="s">
-        <v>96</v>
-      </c>
-      <c r="F112" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -14199,7 +14199,7 @@
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F113">
         <v>911</v>
@@ -14222,7 +14222,7 @@
         <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -14282,7 +14282,7 @@
         <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -14322,7 +14322,7 @@
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -14342,7 +14342,7 @@
         <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -14362,7 +14362,7 @@
         <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -14399,7 +14399,7 @@
         <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -14416,10 +14416,10 @@
         <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -14436,10 +14436,10 @@
         <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -14459,7 +14459,7 @@
         <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -14476,10 +14476,10 @@
         <v>20</v>
       </c>
       <c r="E127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -14496,10 +14496,10 @@
         <v>22</v>
       </c>
       <c r="E128" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" t="s">
         <v>58</v>
-      </c>
-      <c r="F128" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -14559,7 +14559,7 @@
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -14576,10 +14576,10 @@
         <v>22</v>
       </c>
       <c r="E132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -14591,8 +14591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -14637,7 +14637,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14654,10 +14654,10 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14671,13 +14671,13 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -14697,7 +14697,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14717,7 +14717,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14737,7 +14737,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -14777,7 +14777,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -14797,7 +14797,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14814,10 +14814,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -14834,10 +14834,10 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -14877,7 +14877,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -14897,7 +14897,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -14931,13 +14931,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -14957,7 +14957,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -14977,7 +14977,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -14997,7 +14997,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -15017,7 +15017,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -15037,7 +15037,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15074,10 +15074,10 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -15097,7 +15097,7 @@
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -15137,7 +15137,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -15154,10 +15154,10 @@
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -15177,7 +15177,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15197,7 +15197,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -15217,7 +15217,7 @@
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -15237,7 +15237,7 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -15254,10 +15254,10 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -15277,7 +15277,7 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -15297,7 +15297,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -15317,7 +15317,7 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -15337,7 +15337,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -15357,7 +15357,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -15411,7 +15411,7 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -15431,7 +15431,7 @@
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -15451,7 +15451,7 @@
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -15491,7 +15491,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -15505,13 +15505,13 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -15528,10 +15528,10 @@
         <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -15551,7 +15551,7 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -15571,7 +15571,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -15591,7 +15591,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -15611,7 +15611,7 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -15651,7 +15651,7 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -15691,7 +15691,7 @@
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
         <v>20</v>
@@ -15731,7 +15731,7 @@
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -15751,7 +15751,7 @@
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -15765,13 +15765,13 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -15791,7 +15791,7 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -15805,13 +15805,13 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -15891,7 +15891,7 @@
         <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -15908,10 +15908,10 @@
         <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -15948,10 +15948,10 @@
         <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -15971,7 +15971,7 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -15988,10 +15988,10 @@
         <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -16011,7 +16011,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -16028,10 +16028,10 @@
         <v>22</v>
       </c>
       <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
         <v>69</v>
-      </c>
-      <c r="F72" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -16051,7 +16051,7 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -16071,7 +16071,7 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -16091,7 +16091,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -16111,7 +16111,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -16131,7 +16131,7 @@
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -16148,7 +16148,7 @@
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F78">
         <v>93</v>
@@ -16171,7 +16171,7 @@
         <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -16188,10 +16188,10 @@
         <v>22</v>
       </c>
       <c r="E80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" t="s">
         <v>69</v>
-      </c>
-      <c r="F80" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -16208,10 +16208,10 @@
         <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -16228,10 +16228,10 @@
         <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -16268,10 +16268,10 @@
         <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -16351,7 +16351,7 @@
         <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -16371,7 +16371,7 @@
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -16391,7 +16391,7 @@
         <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -16411,7 +16411,7 @@
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -16431,7 +16431,7 @@
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -16451,7 +16451,7 @@
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -16468,10 +16468,10 @@
         <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -16491,7 +16491,7 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -16511,7 +16511,7 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -16531,7 +16531,7 @@
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -16551,7 +16551,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -16588,10 +16588,10 @@
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -16602,16 +16602,16 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
         <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -16631,7 +16631,7 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -16668,10 +16668,10 @@
         <v>22</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -16691,7 +16691,7 @@
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -16711,7 +16711,7 @@
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -16728,10 +16728,10 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -16751,7 +16751,7 @@
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -16768,10 +16768,10 @@
         <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -16791,7 +16791,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -16811,7 +16811,7 @@
         <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -16851,7 +16851,7 @@
         <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -16871,7 +16871,7 @@
         <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -16891,7 +16891,7 @@
         <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -16911,7 +16911,7 @@
         <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -16948,10 +16948,10 @@
         <v>25</v>
       </c>
       <c r="E118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -16971,7 +16971,7 @@
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -17011,7 +17011,7 @@
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -17028,10 +17028,10 @@
         <v>22</v>
       </c>
       <c r="E122" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122" t="s">
         <v>69</v>
-      </c>
-      <c r="F122" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -17051,7 +17051,7 @@
         <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -17063,8 +17063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -17109,7 +17109,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -17129,7 +17129,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -17189,7 +17189,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -17206,10 +17206,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -17229,7 +17229,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17249,7 +17249,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -17269,7 +17269,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -17286,10 +17286,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -17309,7 +17309,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -17326,10 +17326,10 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -17349,7 +17349,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -17389,7 +17389,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -17409,7 +17409,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -17423,13 +17423,13 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -17449,7 +17449,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -17469,7 +17469,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -17489,7 +17489,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -17509,7 +17509,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -17526,10 +17526,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -17549,7 +17549,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -17566,10 +17566,10 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -17586,10 +17586,10 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
         <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -17609,7 +17609,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -17629,7 +17629,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -17649,7 +17649,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -17669,7 +17669,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -17686,10 +17686,10 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -17709,7 +17709,7 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -17749,7 +17749,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -17769,7 +17769,7 @@
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -17786,10 +17786,10 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17806,10 +17806,10 @@
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -17829,7 +17829,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -17849,7 +17849,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -17869,7 +17869,7 @@
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -17883,13 +17883,13 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
         <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -17909,7 +17909,7 @@
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -17949,7 +17949,7 @@
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -17966,10 +17966,10 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
         <v>76</v>
-      </c>
-      <c r="F45" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -17989,7 +17989,7 @@
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -18009,7 +18009,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -18029,7 +18029,7 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -18049,7 +18049,7 @@
         <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -18069,7 +18069,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -18106,10 +18106,10 @@
         <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -18126,10 +18126,10 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -18146,10 +18146,10 @@
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -18169,7 +18169,7 @@
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -18189,7 +18189,7 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -18223,7 +18223,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -18263,7 +18263,7 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -18283,7 +18283,7 @@
         <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -18297,13 +18297,13 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -18323,7 +18323,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -18343,7 +18343,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -18363,7 +18363,7 @@
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -18383,7 +18383,7 @@
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -18403,7 +18403,7 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -18440,10 +18440,10 @@
         <v>22</v>
       </c>
       <c r="E69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" t="s">
         <v>58</v>
-      </c>
-      <c r="F69" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -18483,7 +18483,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -18503,7 +18503,7 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -18543,7 +18543,7 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -18563,7 +18563,7 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -18603,7 +18603,7 @@
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -18643,7 +18643,7 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -18663,7 +18663,7 @@
         <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -18683,7 +18683,7 @@
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -18700,10 +18700,10 @@
         <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -18723,7 +18723,7 @@
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -18743,7 +18743,7 @@
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -18763,7 +18763,7 @@
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -18783,7 +18783,7 @@
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -18823,7 +18823,7 @@
         <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -18863,7 +18863,7 @@
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -18883,7 +18883,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -18900,10 +18900,10 @@
         <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -18943,7 +18943,7 @@
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -18977,7 +18977,7 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -19014,10 +19014,10 @@
         <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -19057,7 +19057,7 @@
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -19077,7 +19077,7 @@
         <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -19097,7 +19097,7 @@
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -19134,10 +19134,10 @@
         <v>22</v>
       </c>
       <c r="E104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -19157,7 +19157,7 @@
         <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -19177,7 +19177,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -19194,10 +19194,10 @@
         <v>25</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -19217,7 +19217,7 @@
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -19234,10 +19234,10 @@
         <v>22</v>
       </c>
       <c r="E109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -19277,7 +19277,7 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -19297,7 +19297,7 @@
         <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -19314,10 +19314,10 @@
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -19337,7 +19337,7 @@
         <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -19374,10 +19374,10 @@
         <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -19394,10 +19394,10 @@
         <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -19437,7 +19437,7 @@
         <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -19477,7 +19477,7 @@
         <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -19497,7 +19497,7 @@
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -19514,10 +19514,10 @@
         <v>22</v>
       </c>
       <c r="E123" t="s">
+        <v>68</v>
+      </c>
+      <c r="F123" t="s">
         <v>69</v>
-      </c>
-      <c r="F123" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -19534,10 +19534,10 @@
         <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -19568,10 +19568,10 @@
         <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F126" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -19605,7 +19605,7 @@
         <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -19625,7 +19625,7 @@
         <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -19645,7 +19645,7 @@
         <v>54</v>
       </c>
       <c r="F130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -19665,7 +19665,7 @@
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -19705,7 +19705,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -19722,10 +19722,10 @@
         <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -19765,7 +19765,7 @@
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -19785,7 +19785,7 @@
         <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -19805,7 +19805,7 @@
         <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -19816,16 +19816,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
       </c>
       <c r="E139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -19845,7 +19845,7 @@
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -19865,7 +19865,7 @@
         <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -19885,7 +19885,7 @@
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -19905,7 +19905,7 @@
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -19925,7 +19925,7 @@
         <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -19945,7 +19945,7 @@
         <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -19965,7 +19965,7 @@
         <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -19985,7 +19985,7 @@
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -20002,10 +20002,10 @@
         <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -20025,7 +20025,7 @@
         <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -20045,7 +20045,7 @@
         <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -20102,10 +20102,10 @@
         <v>22</v>
       </c>
       <c r="E153" t="s">
+        <v>57</v>
+      </c>
+      <c r="F153" t="s">
         <v>58</v>
-      </c>
-      <c r="F153" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -20125,7 +20125,7 @@
         <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -20142,10 +20142,10 @@
         <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -20165,7 +20165,7 @@
         <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -20182,10 +20182,10 @@
         <v>22</v>
       </c>
       <c r="E157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -20202,7 +20202,7 @@
         <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -20216,13 +20216,13 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -20236,13 +20236,13 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -20350,7 +20350,7 @@
         <v>49</v>
       </c>
       <c r="F166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -20370,7 +20370,7 @@
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -20390,7 +20390,7 @@
         <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -20410,7 +20410,7 @@
         <v>18</v>
       </c>
       <c r="F169" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -20481,7 +20481,7 @@
         <v>13</v>
       </c>
       <c r="F173" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/mopac.xlsx
+++ b/data-raw/mopac.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sunday" sheetId="1" r:id="rId1"/>
@@ -11935,8 +11935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13716,7 +13716,7 @@
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
         <v>75</v>
@@ -17063,7 +17063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
